--- a/Applications/reverse Cope elimination/CCSD/4F_M1_M1.xlsx
+++ b/Applications/reverse Cope elimination/CCSD/4F_M1_M1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fragcut" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="fragcut" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>4,5,6,14,15,16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7,10</t>
+          <t>11,12,13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.76</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -503,41 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11,12,13</t>
+          <t>7,8,9,10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>frag_4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14,15,16</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>frag_5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4,5,6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.04</v>
+        <v>15.79</v>
       </c>
     </row>
   </sheetData>
